--- a/RAW/granulo.xlsx
+++ b/RAW/granulo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B612B7-A6F9-470E-A40E-D8620CA3A5FB}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{AE970E68-FF6B-4C62-BF31-5739EAB7B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D732FC3C-FF80-4EB3-9A32-1E05D0E0549E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D489238-0CBC-40B0-A849-BE6C082ABEA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Sablo-limoneux</t>
   </si>
@@ -116,10 +116,25 @@
     <t xml:space="preserve">Sable grossier </t>
   </si>
   <si>
-    <t>Sable</t>
-  </si>
-  <si>
     <t>Les Gourmandes</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Garden</t>
   </si>
 </sst>
 </file>
@@ -812,7 +827,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11">
         <v>5.3</v>
@@ -1107,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA2B1D-2558-453A-B0B7-885620F6C7B4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,21 +1133,24 @@
     <col min="1" max="1" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1145,8 +1163,11 @@
       <c r="D2">
         <v>60.400000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1180,11 @@
       <c r="D3">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1197,11 @@
       <c r="D4">
         <v>86.699999999999989</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1187,8 +1214,11 @@
       <c r="D5">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1201,8 +1231,11 @@
       <c r="D6">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1215,8 +1248,11 @@
       <c r="D7">
         <v>69.699999999999989</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1229,8 +1265,11 @@
       <c r="D8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1243,8 +1282,11 @@
       <c r="D9">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1257,8 +1299,11 @@
       <c r="D10">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1271,8 +1316,11 @@
       <c r="D11">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1285,8 +1333,11 @@
       <c r="D12">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1299,8 +1350,11 @@
       <c r="D13">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1313,8 +1367,11 @@
       <c r="D14">
         <v>62.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1327,8 +1384,11 @@
       <c r="D15">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1340,6 +1400,9 @@
       </c>
       <c r="D16">
         <v>82.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
